--- a/data/trans_dic/P31_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 19,6</t>
+          <t>4,62; 33,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 22,55</t>
+          <t>0,0; 20,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 16,7</t>
+          <t>0,0; 29,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 21,93</t>
+          <t>2,29; 21,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 48,2</t>
+          <t>2,19; 18,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 26,27</t>
+          <t>13,42; 38,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,4</t>
+          <t>7,51; 32,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 31,69</t>
+          <t>10,52; 35,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 18,97</t>
+          <t>4,49; 19,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 25,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 23,26</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 23,32</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 48,34</t>
+          <t>16,41; 61,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,56; 41,83</t>
+          <t>13,97; 57,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 49,63</t>
+          <t>4,32; 60,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 27,93</t>
+          <t>2,92; 21,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,14; 42,35</t>
+          <t>8,08; 26,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,81; 42,04</t>
+          <t>18,61; 41,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 34,13</t>
+          <t>12,16; 35,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 37,16</t>
+          <t>12,65; 37,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,7; 40,3</t>
+          <t>14,96; 44,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18,53; 44,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 45,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 23,67</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,66; 43,73</t>
+          <t>9,98; 30,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 29,19</t>
+          <t>11,78; 31,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 27,61</t>
+          <t>13,73; 34,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,6; 34,05</t>
+          <t>11,54; 32,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,98; 43,74</t>
+          <t>16,64; 32,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,5; 40,02</t>
+          <t>33,85; 53,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,18; 34,56</t>
+          <t>23,8; 42,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,81; 34,12</t>
+          <t>16,77; 33,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,4; 31,89</t>
+          <t>15,67; 28,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27,49; 41,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 36,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 30,03</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 15,08</t>
+          <t>2,93; 16,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 34,31</t>
+          <t>12,01; 29,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 30,75</t>
+          <t>9,36; 27,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 27,82</t>
+          <t>6,63; 24,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 37,13</t>
+          <t>16,43; 33,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,38; 35,4</t>
+          <t>19,78; 37,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 19,99</t>
+          <t>20,68; 38,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 33,01</t>
+          <t>16,12; 32,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,53; 30,87</t>
+          <t>11,91; 22,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,9; 31,83</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 29,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,01; 25,78</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,97%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 22,83</t>
+          <t>8,12; 25,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,16; 29,67</t>
+          <t>13,09; 32,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 29,16</t>
+          <t>10,3; 27,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 29,04</t>
+          <t>8,13; 25,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,6; 35,87</t>
+          <t>6,92; 29,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,64; 46,0</t>
+          <t>14,17; 38,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,05; 23,22</t>
+          <t>18,45; 44,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 30,45</t>
+          <t>10,8; 32,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,62; 33,67</t>
+          <t>10,3; 24,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,45; 31,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 30,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 25,5</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,04; 20,93</t>
+          <t>6,97; 29,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,11; 27,97</t>
+          <t>5,67; 29,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,32; 26,0</t>
+          <t>7,61; 32,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,22; 47,31</t>
+          <t>4,83; 27,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 43,91</t>
+          <t>25,47; 54,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 44,3</t>
+          <t>12,62; 40,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 34,49</t>
+          <t>16,37; 52,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,25; 34,48</t>
+          <t>17,4; 58,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 34,97</t>
+          <t>19,83; 39,12</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,67; 29,88</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 37,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15,81; 42,25</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,14; 22,92</t>
+          <t>13,05; 26,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,43</t>
+          <t>14,71; 26,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,36</t>
+          <t>13,28; 28,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,21</t>
+          <t>9,5; 17,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,09; 35,67</t>
+          <t>17,95; 26,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,32</t>
+          <t>25,83; 35,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 23,07</t>
+          <t>23,28; 33,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,66; 29,12</t>
+          <t>20,57; 32,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,62</t>
+          <t>16,76; 23,86</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 29,21</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 27,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 23,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16270</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6350</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11450</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11303</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9280</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28474</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21424</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30505</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25550</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34824</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32873</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41807</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4941; 35413</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21664</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 37456</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3335; 30953</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2929; 25289</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16116; 45755</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9206; 39289</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15313; 51576</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10819; 46970</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20452; 58653</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13995; 58158</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24193; 67916</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55264</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41905</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37344</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21737</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27474</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36804</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27805</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36837</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>82738</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78708</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65149</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58573</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27696; 103332</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20025; 82405</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6666; 93992</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6646; 49145</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13349; 44359</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23577; 52517</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15357; 44343</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20546; 60147</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49945; 147024</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>50059; 120911</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35772; 128278</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31146; 92335</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29825</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27315</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31999</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36090</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63243</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>90836</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65134</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61592</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93068</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118151</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97133</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97682</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16169; 50156</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15832; 42438</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18891; 47864</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20809; 58422</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43943; 85925</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>70879; 112769</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47716; 85204</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40197; 81286</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66766; 121891</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>94485; 143956</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74048; 122533</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>71704; 126109</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14908</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31670</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26510</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27795</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52506</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51703</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50485</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51483</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>67414</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83372</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>76995</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>79278</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5463; 29867</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19368; 47375</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14628; 42933</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13358; 49117</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>35888; 73416</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36786; 68974</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35662; 65828</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>34295; 68779</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48262; 91074</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62126; 110484</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57928; 97413</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>58020; 106780</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23938</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28881</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22433</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24286</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19842</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23012</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27578</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27751</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43781</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>51893</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>50012</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>52038</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12779; 40167</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17291; 42928</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12692; 34442</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12580; 39255</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8044; 34724</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13290; 36108</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17098; 41323</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14801; 44381</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28190; 66523</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>37169; 71174</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>34724; 66657</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>34737; 74385</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16542</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13440</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15811</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>19657</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>54776</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>26315</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35561</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>71679</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>71318</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39756</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>51372</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>91336</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7616; 32419</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4955; 25984</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6860; 29599</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6651; 38583</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35049; 75208</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13269; 42476</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18103; 57911</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36692; 122610</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>48969; 96600</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24388; 57510</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>32094; 76031</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>55115; 147314</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>156748</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>149561</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>145548</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>140868</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>227121</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>257144</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>227987</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>279846</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>383869</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>406706</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>373535</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>420715</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>116297; 233124</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>112366; 201051</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>104779; 224705</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>99497; 185599</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>185797; 272976</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>217211; 296764</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>192052; 272682</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>227956; 356012</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>322888; 459596</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>354406; 468793</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>316297; 441984</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>352523; 510466</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>